--- a/duerp.xlsx
+++ b/duerp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\Documents\nas_copy\homes\Docgui\Reconversion\BPREA\06 - Planif GIT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A27B0DE0-1D3C-4D71-ABD5-10D8A5F2D5F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05F5AEE5-33A5-49D0-AA89-149E98CC4335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24660" windowHeight="14445" activeTab="1" xr2:uid="{31976B7A-31A7-4EF0-9FDB-8DC5E6EF3621}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14895" activeTab="1" xr2:uid="{31976B7A-31A7-4EF0-9FDB-8DC5E6EF3621}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="64">
   <si>
     <t>Gravité</t>
   </si>
@@ -212,6 +212,12 @@
   </si>
   <si>
     <t>Partage de la charge mentale entre chaque associé + tous les avantages d'être deux !</t>
+  </si>
+  <si>
+    <t>Difficulté à trouver du personnel pour seulement deux semaines en février + avril</t>
+  </si>
+  <si>
+    <t>Analyser la possibilité de passer à 3 associés</t>
   </si>
 </sst>
 </file>
@@ -243,7 +249,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -295,6 +301,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -425,9 +437,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -446,8 +455,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -786,16 +798,16 @@
       <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="21" t="s">
+      <c r="C2" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="27" t="s">
         <v>5</v>
       </c>
     </row>
@@ -803,10 +815,10 @@
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
     </row>
     <row r="4" spans="2:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
@@ -1145,29 +1157,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29F9DD73-F5D3-4AC6-8660-E26A34FF82DF}">
-  <dimension ref="B2:E8"/>
+  <dimension ref="B2:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="42" style="22" customWidth="1"/>
+    <col min="2" max="2" width="42" style="21" customWidth="1"/>
     <col min="3" max="3" width="4.85546875" customWidth="1"/>
-    <col min="4" max="4" width="36.85546875" style="22" customWidth="1"/>
-    <col min="5" max="5" width="58.5703125" style="22" customWidth="1"/>
+    <col min="4" max="4" width="36.85546875" style="21" customWidth="1"/>
+    <col min="5" max="5" width="58.5703125" style="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="25" t="s">
+      <c r="C2" s="25"/>
+      <c r="D2" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="24" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1175,15 +1187,15 @@
       <c r="B3" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
     </row>
     <row r="4" spans="2:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B4" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="24"/>
+      <c r="C4" s="23"/>
       <c r="D4" s="2" t="s">
         <v>54</v>
       </c>
@@ -1191,39 +1203,49 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B5" s="28"/>
-      <c r="C5" s="24"/>
+      <c r="C5" s="23"/>
       <c r="D5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="26"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="16" t="s">
+    <row r="7" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B7" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-    </row>
-    <row r="7" spans="2:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="B7" s="16" t="s">
+      <c r="C7" s="23"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+    </row>
+    <row r="8" spans="2:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="B8" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-    </row>
-    <row r="8" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B8" s="16" t="s">
+      <c r="C8" s="23"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+    </row>
+    <row r="9" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B9" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/duerp.xlsx
+++ b/duerp.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\Documents\nas_copy\homes\Docgui\Reconversion\BPREA\06 - Planif GIT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05F5AEE5-33A5-49D0-AA89-149E98CC4335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B292DF3-D09A-47FC-AAA6-145076086687}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14895" activeTab="1" xr2:uid="{31976B7A-31A7-4EF0-9FDB-8DC5E6EF3621}"/>
+    <workbookView xWindow="28680" yWindow="630" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{31976B7A-31A7-4EF0-9FDB-8DC5E6EF3621}"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
-    <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
+    <sheet name="Feuil2 (2)" sheetId="3" r:id="rId1"/>
+    <sheet name="Feuil1" sheetId="1" r:id="rId2"/>
+    <sheet name="Feuil2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="71">
   <si>
     <t>Gravité</t>
   </si>
@@ -193,18 +194,12 @@
     <t>Temps de travail important pendant les congés du second associé</t>
   </si>
   <si>
-    <t>Etudier la possibilité économique de prendre deux saisonniers à 28h plutôt qu'un saisonnier à 35h sur le mois de juillet</t>
-  </si>
-  <si>
     <t>Temps d'échange important pour mettre l'accent sur la communication et sur "l'amélioration continue"</t>
   </si>
   <si>
     <t>Second associé pour l'instant non identifié</t>
   </si>
   <si>
-    <t>Bien étudier le profil souhaité du second associé</t>
-  </si>
-  <si>
     <t>Accent mis sur le bien être au travail, ambiance, ergonomie, rythme…</t>
   </si>
   <si>
@@ -218,13 +213,40 @@
   </si>
   <si>
     <t>Analyser la possibilité de passer à 3 associés</t>
+  </si>
+  <si>
+    <t>Temps d'échange important  et      "amélioration continue"</t>
+  </si>
+  <si>
+    <t>Bien être au travail, ambiance, ergonomie, rythme…</t>
+  </si>
+  <si>
+    <t>Partage des tâches et alternance</t>
+  </si>
+  <si>
+    <t>Tous les avantages d'être deux associés !</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Difficulté à trouver du personnel qualifié pour seulement deux semaines </t>
+  </si>
+  <si>
+    <t>Temps de travail équilibré. 5 semaines de vacances par an.</t>
+  </si>
+  <si>
+    <t>Etudier la possibilité économique de prendre deux saisonniers à 28h ou analyser la possibilité de passer à 3 associés</t>
+  </si>
+  <si>
+    <t>Réseau, café installation…</t>
+  </si>
+  <si>
+    <t>Etudier la possibilité économique de prendre deux saisonniers à 28h plutôt qu'un saisonnier à 35h sur le mois de juillet ou analyser la possibilité de passer à 3 associés</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -242,6 +264,13 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="13"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -375,7 +404,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -455,11 +484,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -774,6 +821,103 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53904315-7C4E-4246-B99C-ACD2CC29DF4C}">
+  <dimension ref="B2:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="43.28515625" style="21" customWidth="1"/>
+    <col min="3" max="3" width="2" customWidth="1"/>
+    <col min="4" max="4" width="36.85546875" style="21" customWidth="1"/>
+    <col min="5" max="5" width="64.7109375" style="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="25"/>
+      <c r="D2" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" s="4" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="30"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+    </row>
+    <row r="4" spans="2:5" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="30"/>
+      <c r="D4" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="32" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="33"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="32" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="34"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="34.5" x14ac:dyDescent="0.3">
+      <c r="B7" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="30"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+    </row>
+    <row r="8" spans="2:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B8" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="30"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+    </row>
+    <row r="9" spans="2:5" ht="34.5" x14ac:dyDescent="0.3">
+      <c r="B9" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="30"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3495D5C4-A5C7-45F2-8286-E35403D10796}">
   <dimension ref="B2:I25"/>
   <sheetViews>
@@ -798,16 +942,16 @@
       <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="F2" s="28" t="s">
         <v>5</v>
       </c>
     </row>
@@ -815,10 +959,10 @@
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
     </row>
     <row r="4" spans="2:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
@@ -1155,12 +1299,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29F9DD73-F5D3-4AC6-8660-E26A34FF82DF}">
   <dimension ref="B2:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1185,7 +1329,7 @@
     </row>
     <row r="3" spans="2:5" s="4" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C3" s="23"/>
       <c r="D3" s="22"/>
@@ -1200,32 +1344,32 @@
         <v>54</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B5" s="28"/>
+      <c r="B5" s="27"/>
       <c r="C5" s="23"/>
       <c r="D5" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="26"/>
       <c r="C6" s="23"/>
       <c r="D6" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B7" s="16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C7" s="23"/>
       <c r="D7" s="26"/>
@@ -1233,7 +1377,7 @@
     </row>
     <row r="8" spans="2:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B8" s="16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C8" s="23"/>
       <c r="D8" s="26"/>
@@ -1241,7 +1385,7 @@
     </row>
     <row r="9" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C9" s="23"/>
       <c r="D9" s="26"/>
